--- a/CoreRulebook/Data/Archetypes/Druid.xlsx
+++ b/CoreRulebook/Data/Archetypes/Druid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Beginner</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">Nature Senses, Aspect of Nature</t>
   </si>
   <si>
     <t xml:space="preserve">Full Name:</t>
@@ -55,9 +55,15 @@
     <t xml:space="preserve">Druid</t>
   </si>
   <si>
+    <t xml:space="preserve">Wild Step</t>
+  </si>
+  <si>
     <t xml:space="preserve">HP:</t>
   </si>
   <si>
+    <t xml:space="preserve">Druidic Binding</t>
+  </si>
+  <si>
     <t xml:space="preserve">FP:</t>
   </si>
   <si>
@@ -73,25 +79,43 @@
     <t xml:space="preserve">Tools:</t>
   </si>
   <si>
+    <t xml:space="preserve">Choose 1 from Herbology Tools, First Aid Kit, Alchemy Gear or a Musical Instrument</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disciplines:</t>
   </si>
   <si>
     <t xml:space="preserve">Weapons:</t>
   </si>
   <si>
+    <t xml:space="preserve">Simple Weapons, Simple Ranged Weapons</t>
+  </si>
+  <si>
     <t xml:space="preserve">Proficiencies:</t>
   </si>
   <si>
+    <t xml:space="preserve">Nature and choose 2 from Speed, Strength, Vitality, Stealth, Willpower, Persuasion, Arcane, Logic, Unnature, Investigation or Observation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equipment:</t>
   </si>
   <si>
+    <t xml:space="preserve">1 weapon of your choice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adept</t>
   </si>
   <si>
     <t xml:space="preserve">Memorised Spells</t>
   </si>
   <si>
+    <t xml:space="preserve">3 spells from the basic spells table </t>
+  </si>
+  <si>
     <t xml:space="preserve">List1 Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspects</t>
   </si>
   <si>
     <t xml:space="preserve">List2 Name</t>
@@ -213,12 +237,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -231,19 +255,15 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,6 +303,9 @@
       <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
@@ -301,8 +324,14 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>8</v>
@@ -319,8 +348,14 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>10</v>
@@ -337,14 +372,17 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -353,10 +391,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,13 +412,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -383,13 +431,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -398,10 +452,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,13 +473,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -428,10 +494,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,10 +515,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,10 +536,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,7 +554,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +569,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,7 +584,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +599,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,7 +614,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +629,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +644,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +659,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Druid.xlsx
+++ b/CoreRulebook/Data/Archetypes/Druid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DACE5A-5DAE-424B-BA61-DC563AA50762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A92138-D662-45A4-ABE9-63647A4BCB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Level</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Ascendant</t>
+  </si>
+  <si>
+    <t>Wrath of the Wild</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -918,7 +921,7 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Druid.xlsx
+++ b/CoreRulebook/Data/Archetypes/Druid.xlsx
@@ -91,6 +91,9 @@
     <t xml:space="preserve">Disciplines:</t>
   </si>
   <si>
+    <t xml:space="preserve">Choose 3 from Elemental, Telepathy, Bewitchment, Healing, Warding and Alteration. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Aspect Feature III</t>
   </si>
   <si>
@@ -136,7 +139,7 @@
     <t xml:space="preserve">List2 Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Ancient Knowledge</t>
+    <t xml:space="preserve">Ancient Powers</t>
   </si>
   <si>
     <t xml:space="preserve">Master</t>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nature Affinity III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspect Feature VI</t>
   </si>
   <si>
     <t xml:space="preserve">Ascendant</t>
@@ -285,7 +285,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -442,6 +442,9 @@
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -455,10 +458,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -473,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,16 +494,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,16 +515,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,13 +536,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,10 +554,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,10 +638,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CoreRulebook/Data/Archetypes/Druid.xlsx
+++ b/CoreRulebook/Data/Archetypes/Druid.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Proficiencies:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nature and choose 2 from Speed, Strength, Vitality, Stealth, Willpower, Persuasion, Arcane, Logic, Unnature, Investigation or Observation.</t>
+    <t xml:space="preserve">Nature and choose 2 from Vitality, Stealth, Willpower, Persuasion, Arcane, Logic, Unnature, Investigation or Observation.</t>
   </si>
   <si>
     <t xml:space="preserve">Nature Affinity II</t>
@@ -285,7 +285,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,7 +467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
